--- a/projektnaplo.xlsx
+++ b/projektnaplo.xlsx
@@ -5,20 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\rpg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF59750-7543-4BB0-A097-A180F54A03F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897D57F6-A89F-462D-851E-FC7C9B1B2793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="1" r:id="rId1"/>
     <sheet name="classes" sheetId="2" r:id="rId2"/>
-    <sheet name="classSkilss" sheetId="6" r:id="rId3"/>
-    <sheet name="enemys" sheetId="3" r:id="rId4"/>
-    <sheet name="weapons" sheetId="5" r:id="rId5"/>
-    <sheet name="gameplay" sheetId="4" r:id="rId6"/>
+    <sheet name="armors-kérdéses" sheetId="8" r:id="rId3"/>
+    <sheet name="weapons" sheetId="5" r:id="rId4"/>
+    <sheet name="classSkilss" sheetId="6" r:id="rId5"/>
+    <sheet name="enemySkills" sheetId="7" r:id="rId6"/>
+    <sheet name="enemys" sheetId="3" r:id="rId7"/>
+    <sheet name="gameplay" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="84">
   <si>
     <t>Task</t>
   </si>
@@ -230,6 +232,69 @@
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>OvertimeEffect</t>
+  </si>
+  <si>
+    <t>isUltimate</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>defensive</t>
+  </si>
+  <si>
+    <t>agressive</t>
+  </si>
+  <si>
+    <t>auto-attack calculator</t>
+  </si>
+  <si>
+    <t>defense</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>classId</t>
+  </si>
+  <si>
+    <t>armor</t>
+  </si>
+  <si>
+    <t>valur</t>
+  </si>
+  <si>
+    <t>rarity</t>
+  </si>
+  <si>
+    <t>purchasable</t>
+  </si>
+  <si>
+    <t>bossdrop</t>
+  </si>
+  <si>
+    <t>bossid</t>
+  </si>
+  <si>
+    <t>questReward</t>
+  </si>
+  <si>
+    <t>questId</t>
+  </si>
+  <si>
+    <t>Questreward</t>
+  </si>
+  <si>
+    <t>QuestId</t>
   </si>
 </sst>
 </file>
@@ -451,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -459,41 +524,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -501,34 +535,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -542,6 +552,66 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -836,22 +906,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="32"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="13"/>
-      <c r="C5" s="34" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
@@ -859,10 +929,10 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D6" t="s">
@@ -870,8 +940,8 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="30"/>
-      <c r="C7" s="35" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="16" t="s">
         <v>53</v>
       </c>
       <c r="D7" t="s">
@@ -914,10 +984,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EDAB68-556B-4C76-82FE-04C9A343365F}">
-  <dimension ref="B4:S14"/>
+  <dimension ref="B4:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -936,16 +1006,16 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -977,15 +1047,15 @@
       <c r="G6" s="1">
         <v>8</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11" t="s">
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="S6" s="12"/>
+      <c r="S6" s="18"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
@@ -1003,15 +1073,15 @@
       <c r="G7" s="1">
         <v>5</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="O7" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15" t="s">
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" t="s">
         <v>43</v>
       </c>
-      <c r="S7" s="16" t="s">
+      <c r="S7" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1028,18 +1098,24 @@
       <c r="E8" s="1">
         <v>15</v>
       </c>
+      <c r="F8" s="1">
+        <v>7</v>
+      </c>
       <c r="G8" s="1">
         <v>7</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="O8" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15" t="s">
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" t="s">
         <v>41</v>
       </c>
-      <c r="S8" s="16" t="s">
+      <c r="S8" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1059,11 +1135,8 @@
       <c r="G9" s="1">
         <v>7</v>
       </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="18"/>
+      <c r="O9" s="6"/>
+      <c r="S9" s="7"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
@@ -1084,11 +1157,11 @@
       <c r="G10" s="1">
         <v>7</v>
       </c>
-      <c r="O10" s="17"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="18"/>
+      <c r="H10" s="1">
+        <v>4</v>
+      </c>
+      <c r="O10" s="6"/>
+      <c r="S10" s="7"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
@@ -1103,14 +1176,17 @@
       <c r="E11" s="1">
         <v>15</v>
       </c>
+      <c r="F11" s="1">
+        <v>7</v>
+      </c>
       <c r="G11" s="1">
         <v>5</v>
       </c>
-      <c r="O11" s="17"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="18"/>
+      <c r="H11" s="1">
+        <v>5</v>
+      </c>
+      <c r="O11" s="6"/>
+      <c r="S11" s="7"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
@@ -1125,202 +1201,101 @@
       <c r="E12" s="1">
         <v>20</v>
       </c>
+      <c r="F12" s="1">
+        <v>7</v>
+      </c>
       <c r="G12" s="1">
         <v>8</v>
       </c>
-      <c r="O12" s="19" t="s">
+      <c r="H12" s="1">
+        <v>3</v>
+      </c>
+      <c r="O12" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20" t="s">
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="S12" s="21"/>
+      <c r="S12" s="22"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="O13" s="17"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="18"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="O14" s="22" t="s">
+      <c r="O13" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="24" t="s">
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="S14" s="25"/>
+      <c r="S13" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="R6:S6"/>
     <mergeCell ref="O6:Q6"/>
     <mergeCell ref="O12:Q12"/>
     <mergeCell ref="R12:S12"/>
-    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="R13:S13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A63123-B5A5-429E-BCEB-A505C9AF7916}">
-  <dimension ref="C4:Q7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71123E15-9409-41A8-9BDA-84261C29C86D}">
+  <dimension ref="D6:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="11.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="32.77734375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="P4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="3"/>
-    </row>
-    <row r="5" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C6" s="1">
-        <f>classes!C6</f>
-        <v>0</v>
-      </c>
-      <c r="N6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C7" s="1">
-        <f>classes!C6</f>
-        <v>0</v>
+    <row r="6" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="P4:Q4"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1F54C1-CDFA-43F4-8C7D-D7F21CCB78BB}">
-  <dimension ref="C5:Q7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{622F87A7-D5F4-447F-A30F-A94E3366F26D}">
+  <dimension ref="B5:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="11" max="12" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P5" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="28"/>
-    </row>
-    <row r="6" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="P6" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="P7" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="P5:Q5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{622F87A7-D5F4-447F-A30F-A94E3366F26D}">
-  <dimension ref="B5:M31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1332,14 +1307,19 @@
     <col min="10" max="10" width="12.33203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.77734375" style="1" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="27" t="s">
         <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>19</v>
@@ -1362,163 +1342,169 @@
       <c r="M5" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
+      <c r="N5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="14">
         <v>0</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="14" t="str">
         <f>classes!D6</f>
         <v>Swordman</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="14">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="14" t="str">
         <f>classes!D7</f>
         <v>Musketeer</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="14">
         <v>2</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="14" t="str">
         <f>classes!D8</f>
         <v>Conquistadors</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="14">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C9" s="14" t="str">
         <f>classes!D9</f>
         <v>Pikeman</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="14">
         <v>4</v>
       </c>
-      <c r="C10" s="1" t="str">
+      <c r="C10" s="14" t="str">
         <f>classes!D10</f>
         <v>Grenadier</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="14">
         <v>5</v>
       </c>
-      <c r="C11" s="1" t="str">
+      <c r="C11" s="14" t="str">
         <f>classes!D11</f>
         <v>Hussar</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="14">
         <v>6</v>
       </c>
-      <c r="C12" s="1" t="str">
+      <c r="C12" s="14" t="str">
         <f>classes!D12</f>
         <v>Legionaire</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="1">
+      <c r="B17" s="14">
         <v>0</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="28" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="1">
+      <c r="B18" s="14">
         <v>1</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="1">
+      <c r="B19" s="14">
         <v>2</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="30" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="1">
+      <c r="B20" s="14">
         <v>3</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="31" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="1">
+      <c r="B21" s="14">
         <v>4</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="32" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="27" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="1">
+      <c r="B25" s="14">
         <v>0</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="1">
+      <c r="B26" s="14">
         <v>1</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="27" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="1">
+      <c r="B30" s="14">
         <v>0</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="1">
+      <c r="B31" s="14">
         <v>1</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="14" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1527,16 +1513,255 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A63123-B5A5-429E-BCEB-A505C9AF7916}">
+  <dimension ref="C4:Q6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="11.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="14" max="14" width="32.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="P4" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="21"/>
+    </row>
+    <row r="5" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="P4:Q4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBC84C5-6D1F-4235-ADE8-6F070A357B78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213E13E1-EC0D-4E77-A225-782D902AD9EC}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1F54C1-CDFA-43F4-8C7D-D7F21CCB78BB}">
+  <dimension ref="B5:U18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="11" max="12" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="26"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P7" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P10" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="36"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P11" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P12" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P13" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="17" spans="15:21" x14ac:dyDescent="0.3">
+      <c r="O17" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="S17" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+    </row>
+    <row r="18" spans="15:21" x14ac:dyDescent="0.3">
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="P10:Q10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBC84C5-6D1F-4235-ADE8-6F070A357B78}">
+  <dimension ref="D6:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D6" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/projektnaplo.xlsx
+++ b/projektnaplo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\rpg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897D57F6-A89F-462D-851E-FC7C9B1B2793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B30B347-6AC8-4ABC-B483-9336DFC14E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
   <si>
     <t>Task</t>
   </si>
@@ -183,12 +183,6 @@
     <t>Lvl 1</t>
   </si>
   <si>
-    <t>enemyAttack-defense*speed/10</t>
-  </si>
-  <si>
-    <t>20-(10+2/10)</t>
-  </si>
-  <si>
     <t>????</t>
   </si>
   <si>
@@ -295,13 +289,22 @@
   </si>
   <si>
     <t>QuestId</t>
+  </si>
+  <si>
+    <t>Védekezési Érték = Védekezési Erő + (Sebesség / 2) + Páncél Védelmi Értéke</t>
+  </si>
+  <si>
+    <t>(Támadóerő + Fegyver Sebzése) + Sebesség / 2</t>
+  </si>
+  <si>
+    <t>effects</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,8 +347,21 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,6 +398,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -516,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -552,12 +574,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -567,49 +604,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -925,7 +943,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
@@ -933,19 +951,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="11"/>
       <c r="C7" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>0</v>
@@ -953,27 +971,27 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="I9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="I10" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="I11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="I12" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="I13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -987,28 +1005,28 @@
   <dimension ref="B4:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="8.88671875" style="1"/>
     <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
-    <col min="5" max="16" width="8.88671875" style="1"/>
-    <col min="17" max="17" width="19.109375" style="1" customWidth="1"/>
+    <col min="5" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="14" width="8.88671875" style="1" customWidth="1"/>
+    <col min="15" max="16" width="8.88671875" style="1"/>
+    <col min="17" max="17" width="30.44140625" style="1" customWidth="1"/>
     <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1031,7 +1049,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
@@ -1041,21 +1059,16 @@
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1">
-        <v>25</v>
-      </c>
       <c r="G6" s="1">
         <v>8</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="S6" s="18"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="34"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
@@ -1064,30 +1077,23 @@
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="1">
-        <v>15</v>
-      </c>
       <c r="F7" s="1">
         <v>8</v>
       </c>
       <c r="G7" s="1">
         <v>5</v>
       </c>
-      <c r="O7" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" t="s">
-        <v>43</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="O7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7"/>
+      <c r="S7" s="5"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -1095,9 +1101,6 @@
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="1">
-        <v>15</v>
-      </c>
       <c r="F8" s="1">
         <v>7</v>
       </c>
@@ -1107,17 +1110,13 @@
       <c r="H8" s="1">
         <v>3</v>
       </c>
-      <c r="O8" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" t="s">
-        <v>41</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="O8" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8"/>
+      <c r="S8" s="5"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
@@ -1126,9 +1125,6 @@
       <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="1">
-        <v>20</v>
-      </c>
       <c r="F9" s="1">
         <v>5</v>
       </c>
@@ -1140,7 +1136,7 @@
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1">
         <v>4</v>
@@ -1148,9 +1144,6 @@
       <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="1">
-        <v>20</v>
-      </c>
       <c r="F10" s="1">
         <v>8</v>
       </c>
@@ -1164,25 +1157,23 @@
       <c r="S10" s="7"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="38">
         <v>5</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="1">
-        <v>15</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="D11" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38">
         <v>7</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="38">
         <v>5</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="38">
         <v>5</v>
       </c>
       <c r="O11" s="6"/>
@@ -1190,16 +1181,13 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="1">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1">
         <v>7</v>
@@ -1210,38 +1198,32 @@
       <c r="H12" s="1">
         <v>3</v>
       </c>
-      <c r="O12" s="20" t="s">
+      <c r="O12" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="S12" s="22"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="37"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="O13" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="S13" s="34"/>
+      <c r="O13" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="R6:S6"/>
+  <mergeCells count="5">
     <mergeCell ref="O6:Q6"/>
     <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R12:S12"/>
     <mergeCell ref="O13:Q13"/>
     <mergeCell ref="O8:Q8"/>
     <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="R13:S13"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1250,7 +1232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71123E15-9409-41A8-9BDA-84261C29C86D}">
   <dimension ref="D6:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -1258,31 +1240,31 @@
   <sheetData>
     <row r="6" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" t="s">
         <v>73</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>74</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>75</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>76</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>77</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>78</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>79</v>
-      </c>
-      <c r="K6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1292,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{622F87A7-D5F4-447F-A30F-A94E3366F26D}">
-  <dimension ref="B5:O31"/>
+  <dimension ref="B5:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1311,11 +1293,11 @@
     <col min="15" max="15" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="27" t="s">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1343,13 +1325,16 @@
         <v>34</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="14">
         <v>0</v>
       </c>
@@ -1358,7 +1343,7 @@
         <v>Swordman</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="14">
         <v>1</v>
       </c>
@@ -1367,7 +1352,7 @@
         <v>Musketeer</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="14">
         <v>2</v>
       </c>
@@ -1376,7 +1361,7 @@
         <v>Conquistadors</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="14">
         <v>3</v>
       </c>
@@ -1385,7 +1370,7 @@
         <v>Pikeman</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="14">
         <v>4</v>
       </c>
@@ -1394,7 +1379,7 @@
         <v>Grenadier</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="14">
         <v>5</v>
       </c>
@@ -1403,7 +1388,7 @@
         <v>Hussar</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="14">
         <v>6</v>
       </c>
@@ -1412,11 +1397,11 @@
         <v>Legionaire</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="27" t="s">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1424,7 +1409,7 @@
       <c r="B17" s="14">
         <v>0</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="18" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1432,7 +1417,7 @@
       <c r="B18" s="14">
         <v>1</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1440,7 +1425,7 @@
       <c r="B19" s="14">
         <v>2</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="20" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1448,7 +1433,7 @@
       <c r="B20" s="14">
         <v>3</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="21" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1456,15 +1441,15 @@
       <c r="B21" s="14">
         <v>4</v>
       </c>
-      <c r="C21" s="32" t="s">
-        <v>48</v>
+      <c r="C21" s="22" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="17" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1485,10 +1470,10 @@
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="17" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1517,7 +1502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A63123-B5A5-429E-BCEB-A505C9AF7916}">
   <dimension ref="C4:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -1532,10 +1517,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="P4" s="21" t="s">
+      <c r="P4" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="Q4" s="21"/>
+      <c r="Q4" s="26"/>
     </row>
     <row r="5" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
@@ -1551,10 +1536,10 @@
         <v>38</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N5" t="s">
         <v>39</v>
@@ -1568,7 +1553,7 @@
     </row>
     <row r="6" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N6" t="s">
         <v>40</v>
@@ -1618,7 +1603,7 @@
   <sheetData>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1651,12 +1636,12 @@
         <v>36</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P5" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="26"/>
+      <c r="Q5" s="28"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P6" s="6">
@@ -1675,17 +1660,17 @@
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="P10" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q10" s="36"/>
+      <c r="P10" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="30"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="P11" s="13">
         <v>0</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
@@ -1693,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
@@ -1703,24 +1688,24 @@
       <c r="Q13" s="13"/>
     </row>
     <row r="17" spans="15:21" x14ac:dyDescent="0.3">
-      <c r="O17" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="S17" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
+      <c r="O17" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="S17" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
     </row>
     <row r="18" spans="15:21" x14ac:dyDescent="0.3">
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1746,16 +1731,16 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="6" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D6" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="D6" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
